--- a/caso 1.xlsx
+++ b/caso 1.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" state="visible" r:id="rId1"/>
@@ -208,6 +208,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
@@ -222,9 +225,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
@@ -290,6 +290,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -298,9 +301,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
@@ -696,7 +696,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.84765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="14.88" customWidth="1" style="28" min="1" max="1"/>
     <col width="28.11" customWidth="1" style="28" min="2" max="2"/>
@@ -1746,7 +1746,7 @@
   </sheetPr>
   <dimension ref="A1:Z220"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -1754,7 +1754,7 @@
       <selection pane="bottomRight" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.84765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.64" customWidth="1" style="28" min="1" max="1"/>
     <col width="70.33" customWidth="1" style="28" min="2" max="2"/>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B2" s="28" t="inlineStr">
         <is>
-          <t>se asume capacitancia igual a 0</t>
+          <t>Error en el valor de la capacitancia, debe ser un numero</t>
         </is>
       </c>
       <c r="C2" s="38" t="n">
@@ -1858,19 +1858,17 @@
       <c r="W2" s="36" t="n"/>
       <c r="X2" s="36" t="n"/>
       <c r="Y2" s="36" t="n"/>
-      <c r="Z2" s="38" t="n">
-        <v>0</v>
+      <c r="Z2" s="38" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="29">
-      <c r="A3" s="37" t="n">
+      <c r="A3" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="37" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="B3" s="37" t="n"/>
       <c r="C3" s="38" t="n">
         <v>176.7767</v>
       </c>
@@ -8793,7 +8791,7 @@
       <selection pane="bottomRight" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.84765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.64" customWidth="1" style="28" min="1" max="1"/>
     <col width="70.33" customWidth="1" style="28" min="2" max="2"/>
@@ -15790,15 +15788,15 @@
   </sheetPr>
   <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.84765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.64" customWidth="1" style="28" min="1" max="2"/>
     <col width="48.66" customWidth="1" style="28" min="3" max="3"/>
@@ -15807,12 +15805,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="29">
-      <c r="A1" s="40" t="inlineStr">
+      <c r="A1" s="41" t="inlineStr">
         <is>
           <t>Bus i</t>
         </is>
       </c>
-      <c r="B1" s="40" t="inlineStr">
+      <c r="B1" s="41" t="inlineStr">
         <is>
           <t>Bus j</t>
         </is>
@@ -15822,17 +15820,17 @@
           <t>Warning</t>
         </is>
       </c>
-      <c r="D1" s="41" t="inlineStr">
+      <c r="D1" s="42" t="inlineStr">
         <is>
           <t>R (ohms)</t>
         </is>
       </c>
-      <c r="E1" s="41" t="inlineStr">
+      <c r="E1" s="42" t="inlineStr">
         <is>
           <t>L (mH)</t>
         </is>
       </c>
-      <c r="F1" s="41" t="inlineStr">
+      <c r="F1" s="42" t="inlineStr">
         <is>
           <t>C (uF)</t>
         </is>
@@ -15845,19 +15843,13 @@
       <c r="B2" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="37" t="inlineStr">
+      <c r="C2" s="37" t="n"/>
+      <c r="D2" s="38" t="n"/>
+      <c r="E2" s="38" t="n"/>
+      <c r="F2" s="43" t="inlineStr">
         <is>
-          <t>se asume impedancia igual a cero</t>
+          <t>a</t>
         </is>
-      </c>
-      <c r="D2" s="38" t="n">
-        <v>1e-06</v>
-      </c>
-      <c r="E2" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="29">
@@ -15867,12 +15859,8 @@
       <c r="B3" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="37" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="D3" s="42" t="n">
+      <c r="C3" s="37" t="n"/>
+      <c r="D3" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="38" t="n">
@@ -15889,11 +15877,7 @@
       <c r="B4" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="37" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="C4" s="37" t="n"/>
       <c r="D4" s="38" t="n">
         <v>0</v>
       </c>
@@ -15911,11 +15895,7 @@
       <c r="B5" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="37" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="C5" s="37" t="n"/>
       <c r="D5" s="38" t="n">
         <v>1</v>
       </c>
@@ -15930,14 +15910,10 @@
       <c r="A6" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="43" t="n">
+      <c r="B6" s="40" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="37" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="C6" s="37" t="n"/>
       <c r="D6" s="38" t="n">
         <v>1</v>
       </c>
@@ -18471,7 +18447,7 @@
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.84765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.64" customWidth="1" style="28" min="1" max="2"/>
     <col width="14.66" customWidth="1" style="28" min="3" max="3"/>
@@ -18529,18 +18505,10 @@
       <c r="A2" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="n">
-        <v>101.2862114915273</v>
-      </c>
-      <c r="C2" s="48" t="n">
-        <v>-0.4750768513397988</v>
-      </c>
-      <c r="D2" s="48" t="n">
-        <v>1.014255053464379</v>
-      </c>
-      <c r="E2" s="48" t="n">
-        <v>0.7496557970887158</v>
-      </c>
+      <c r="B2" s="48" t="n"/>
+      <c r="C2" s="48" t="n"/>
+      <c r="D2" s="48" t="n"/>
+      <c r="E2" s="48" t="n"/>
       <c r="F2" s="46" t="n"/>
       <c r="G2" s="46" t="n"/>
       <c r="H2" s="46" t="n"/>
@@ -18565,18 +18533,10 @@
       <c r="A3" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="48" t="n">
-        <v>101.286211918759</v>
-      </c>
-      <c r="C3" s="48" t="n">
-        <v>-0.4750772847698005</v>
-      </c>
-      <c r="D3" s="48" t="n">
-        <v>1.014256061893215</v>
-      </c>
-      <c r="E3" s="48" t="n">
-        <v>0.7496557855783464</v>
-      </c>
+      <c r="B3" s="48" t="n"/>
+      <c r="C3" s="48" t="n"/>
+      <c r="D3" s="48" t="n"/>
+      <c r="E3" s="48" t="n"/>
       <c r="F3" s="46" t="n"/>
       <c r="G3" s="46" t="n"/>
       <c r="H3" s="46" t="n"/>
@@ -18601,18 +18561,10 @@
       <c r="A4" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="48" t="n">
-        <v>0.5734182565842741</v>
-      </c>
-      <c r="C4" s="48" t="n">
-        <v>89.05631180636263</v>
-      </c>
-      <c r="D4" s="48" t="n">
-        <v>0.9999208006797131</v>
-      </c>
-      <c r="E4" s="48" t="n">
-        <v>-0.00568466839188933</v>
-      </c>
+      <c r="B4" s="48" t="n"/>
+      <c r="C4" s="48" t="n"/>
+      <c r="D4" s="48" t="n"/>
+      <c r="E4" s="48" t="n"/>
       <c r="F4" s="46" t="n"/>
       <c r="G4" s="46" t="n"/>
       <c r="H4" s="46" t="n"/>
@@ -26307,7 +26259,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.84765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="8.789999999999999" customWidth="1" style="28" min="1" max="1"/>
     <col width="15.22" customWidth="1" style="28" min="2" max="2"/>
@@ -26334,26 +26286,14 @@
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="29">
-      <c r="A2" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="38" t="n">
-        <v>-42.907226352536</v>
-      </c>
-      <c r="C2" s="38" t="n">
-        <v>-116.3333849532852</v>
-      </c>
+      <c r="A2" s="37" t="n"/>
+      <c r="B2" s="38" t="n"/>
+      <c r="C2" s="38" t="n"/>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="29">
-      <c r="A3" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="38" t="n">
-        <v>43.38224055641992</v>
-      </c>
-      <c r="C3" s="38" t="n">
-        <v>58.25596460036863</v>
-      </c>
+      <c r="A3" s="37" t="n"/>
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="38" t="n"/>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="29">
       <c r="A4" s="37" t="n"/>
@@ -28251,7 +28191,7 @@
       <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.84765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="8.789999999999999" customWidth="1" style="28" min="1" max="2"/>
     <col width="15.22" customWidth="1" style="28" min="3" max="3"/>
@@ -28282,74 +28222,34 @@
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="29">
-      <c r="A2" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="38" t="n">
-        <v>7.696015458258952e-07</v>
-      </c>
-      <c r="D2" s="38" t="n">
-        <v>0</v>
-      </c>
+      <c r="A2" s="37" t="n"/>
+      <c r="B2" s="37" t="n"/>
+      <c r="C2" s="38" t="n"/>
+      <c r="D2" s="38" t="n"/>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="29">
-      <c r="A3" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38" t="n">
-        <v>6.738346178436764e-13</v>
-      </c>
-      <c r="D3" s="38" t="n">
-        <v>-2.540296662182615e-13</v>
-      </c>
+      <c r="A3" s="37" t="n"/>
+      <c r="B3" s="37" t="n"/>
+      <c r="C3" s="38" t="n"/>
+      <c r="D3" s="38" t="n"/>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="29">
-      <c r="A4" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="38" t="n">
-        <v>19.35014421352858</v>
-      </c>
+      <c r="A4" s="37" t="n"/>
+      <c r="B4" s="37" t="n"/>
+      <c r="C4" s="38" t="n"/>
+      <c r="D4" s="38" t="n"/>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="29">
-      <c r="A5" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="38" t="n">
-        <v>0.3288084969841484</v>
-      </c>
-      <c r="D5" s="38" t="n">
-        <v>0</v>
-      </c>
+      <c r="A5" s="37" t="n"/>
+      <c r="B5" s="37" t="n"/>
+      <c r="C5" s="38" t="n"/>
+      <c r="D5" s="38" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="29">
-      <c r="A6" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="38" t="n">
-        <v>0.1462061830506824</v>
-      </c>
-      <c r="D6" s="38" t="n">
-        <v>38.72727613938789</v>
-      </c>
+      <c r="A6" s="37" t="n"/>
+      <c r="B6" s="37" t="n"/>
+      <c r="C6" s="38" t="n"/>
+      <c r="D6" s="38" t="n"/>
     </row>
     <row r="7" ht="12.75" customHeight="1" s="29">
       <c r="A7" s="37" t="n"/>
@@ -30442,7 +30342,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.84765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="10" customWidth="1" style="28" min="1" max="1"/>
     <col width="11.45" customWidth="1" style="28" min="2" max="2"/>
@@ -30485,24 +30385,12 @@
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="29">
-      <c r="A2" s="52" t="n">
-        <v>0.4750142038839229</v>
-      </c>
-      <c r="B2" s="52" t="n">
-        <v>-58.07742035291653</v>
-      </c>
-      <c r="C2" s="52" t="n">
-        <v>0.4750154496370506</v>
-      </c>
-      <c r="D2" s="52" t="n">
-        <v>58.07742035291621</v>
-      </c>
-      <c r="E2" s="52" t="n">
-        <v>-1.245753127654403e-06</v>
-      </c>
-      <c r="F2" s="52" t="n">
-        <v>116.1548407058327</v>
-      </c>
+      <c r="A2" s="52" t="n"/>
+      <c r="B2" s="52" t="n"/>
+      <c r="C2" s="52" t="n"/>
+      <c r="D2" s="52" t="n"/>
+      <c r="E2" s="52" t="n"/>
+      <c r="F2" s="52" t="n"/>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="29"/>
     <row r="4" ht="12.75" customHeight="1" s="29"/>
@@ -31529,7 +31417,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="29">
       <c r="A1" s="28" t="inlineStr">

--- a/caso 1.xlsx
+++ b/caso 1.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" state="visible" r:id="rId1"/>
@@ -713,7 +713,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.01953125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="14.88" customWidth="1" style="31" min="1" max="1"/>
     <col width="28.11" customWidth="1" style="31" min="2" max="2"/>
@@ -1763,15 +1763,15 @@
   </sheetPr>
   <dimension ref="A1:Z220"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z11" activeCellId="0" sqref="Z11"/>
+      <selection pane="bottomRight" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.01953125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.64" customWidth="1" style="31" min="1" max="1"/>
     <col width="70.33" customWidth="1" style="31" min="2" max="2"/>
@@ -1851,10 +1851,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="44" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="F2" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="40" t="n"/>
       <c r="H2" s="40" t="n"/>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="3" ht="12.75" customHeight="1" s="32">
       <c r="A3" s="45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="41" t="inlineStr">
         <is>
@@ -1889,16 +1889,16 @@
         </is>
       </c>
       <c r="C3" s="43" t="n">
-        <v>169.7</v>
+        <v>176.7767</v>
       </c>
       <c r="D3" s="43" t="n">
-        <v>-0.00023148</v>
+        <v>-0.0053052</v>
       </c>
       <c r="E3" s="43" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="43" t="n">
-        <v>1.061</v>
+        <v>1</v>
       </c>
       <c r="G3" s="40" t="n"/>
       <c r="H3" s="40" t="n"/>
@@ -8810,7 +8810,7 @@
       <selection pane="bottomRight" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.01953125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.64" customWidth="1" style="31" min="1" max="1"/>
     <col width="70.33" customWidth="1" style="31" min="2" max="2"/>
@@ -15812,15 +15812,15 @@
   </sheetPr>
   <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.01953125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.64" customWidth="1" style="31" min="1" max="2"/>
     <col width="48.66" customWidth="1" style="31" min="3" max="3"/>
@@ -15865,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="41" t="inlineStr">
         <is>
@@ -15873,13 +15873,13 @@
         </is>
       </c>
       <c r="D2" s="43" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="43" t="n">
-        <v>0.2653</v>
+        <v>0</v>
       </c>
       <c r="F2" s="46" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="32">
@@ -15895,10 +15895,10 @@
         </is>
       </c>
       <c r="D3" s="46" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="E3" s="43" t="n">
-        <v>0.2653</v>
+        <v>1</v>
       </c>
       <c r="F3" s="43" t="n">
         <v>0</v>
@@ -15909,52 +15909,66 @@
         <v>2</v>
       </c>
       <c r="B4" s="41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="41" t="inlineStr">
         <is>
-          <t>se asume inductancia igual a 0</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="D4" s="43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="43" t="n">
-        <v>530.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="32">
       <c r="A5" s="41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" s="41" t="inlineStr">
         <is>
-          <t>se asume capacitancia igual a 0</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="D5" s="43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="43" t="n">
-        <v>0.2653</v>
+        <v>0</v>
       </c>
       <c r="F5" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="32">
-      <c r="A6" s="41" t="n"/>
-      <c r="B6" s="45" t="n"/>
-      <c r="C6" s="41" t="n"/>
-      <c r="D6" s="43" t="n"/>
-      <c r="E6" s="43" t="n"/>
-      <c r="F6" s="43" t="n"/>
+      <c r="A6" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="D6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="43" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" ht="12.75" customHeight="1" s="32">
       <c r="A7" s="41" t="n"/>
@@ -18479,7 +18493,7 @@
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.01953125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.64" customWidth="1" style="31" min="1" max="2"/>
     <col width="14.66" customWidth="1" style="31" min="3" max="3"/>
@@ -18495,7 +18509,7 @@
       </c>
       <c r="B1" s="50" t="inlineStr">
         <is>
-          <t>|Vth| (kV)</t>
+          <t>|Vth| (V)</t>
         </is>
       </c>
       <c r="C1" s="50" t="inlineStr">
@@ -18538,16 +18552,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="54" t="n">
-        <v>119.7236571429066</v>
+        <v>101.9645761962728</v>
       </c>
       <c r="C2" s="54" t="n">
-        <v>-0.1297750125190709</v>
+        <v>-114.5782197714293</v>
       </c>
       <c r="D2" s="54" t="n">
-        <v>0.009921947922114236</v>
+        <v>0.9536419415314925</v>
       </c>
       <c r="E2" s="54" t="n">
-        <v>0.0001612047704751438</v>
+        <v>0.6175815686171979</v>
       </c>
       <c r="F2" s="52" t="n"/>
       <c r="G2" s="52" t="n"/>
@@ -18574,16 +18588,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="54" t="n">
-        <v>121.7712807015834</v>
+        <v>121.0370687466303</v>
       </c>
       <c r="C3" s="54" t="n">
-        <v>-0.7490837689505868</v>
+        <v>-117.229662968533</v>
       </c>
       <c r="D3" s="54" t="n">
-        <v>0.02551500133327957</v>
+        <v>0.01286464746762204</v>
       </c>
       <c r="E3" s="54" t="n">
-        <v>0.09960104256526095</v>
+        <v>0.3763833736728717</v>
       </c>
       <c r="F3" s="52" t="n"/>
       <c r="G3" s="52" t="n"/>
@@ -18610,16 +18624,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="54" t="n">
-        <v>117.0846807974356</v>
+        <v>0.6131054914926236</v>
       </c>
       <c r="C4" s="54" t="n">
-        <v>-1.478112876778887</v>
+        <v>-26.02544682775059</v>
       </c>
       <c r="D4" s="54" t="n">
-        <v>0.1142648023070537</v>
+        <v>0.9999394768259913</v>
       </c>
       <c r="E4" s="54" t="n">
-        <v>0.1153177314041718</v>
+        <v>-0.005675913529735605</v>
       </c>
       <c r="F4" s="52" t="n"/>
       <c r="G4" s="52" t="n"/>
@@ -26315,7 +26329,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.01953125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="8.789999999999999" customWidth="1" style="31" min="1" max="1"/>
     <col width="15.22" customWidth="1" style="31" min="2" max="2"/>
@@ -26346,21 +26360,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="43" t="n">
-        <v>3257.151783091664</v>
+        <v>-1504.50329329862</v>
       </c>
       <c r="C2" s="43" t="n">
-        <v>-3253.980115761018</v>
+        <v>-1169.393576865856</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="32">
       <c r="A3" s="41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="43" t="n">
-        <v>-2157.723316630006</v>
+        <v>1846.664104403242</v>
       </c>
       <c r="C3" s="43" t="n">
-        <v>785.8734244538982</v>
+        <v>1229.834158225011</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="32">
@@ -28259,7 +28273,7 @@
       <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.01953125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="8.789999999999999" customWidth="1" style="31" min="1" max="2"/>
     <col width="15.22" customWidth="1" style="31" min="3" max="3"/>
@@ -28294,13 +28308,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="43" t="n">
-        <v>58.90383209432714</v>
+        <v>0.005545315220945701</v>
       </c>
       <c r="D2" s="43" t="n">
-        <v>29.4565528742678</v>
+        <v>-1.470940547360385</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="32">
@@ -28311,10 +28325,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="43" t="n">
-        <v>5.835860628308037</v>
+        <v>341.6312269475462</v>
       </c>
       <c r="D3" s="43" t="n">
-        <v>58.36779409846544</v>
+        <v>128.7919383378334</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="32">
@@ -28322,34 +28336,42 @@
         <v>2</v>
       </c>
       <c r="B4" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="43" t="n">
+        <v>-1.77635683940025e-15</v>
+      </c>
+      <c r="D4" s="43" t="n">
+        <v>-27.6407764934098</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="32">
+      <c r="A5" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="43" t="n">
-        <v>1022.582811932685</v>
+      <c r="C5" s="43" t="n">
+        <v>0.3758983436984116</v>
       </c>
-      <c r="D4" s="43" t="n">
-        <v>-2556.536431666617</v>
+      <c r="D5" s="43" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1" s="32">
-      <c r="A5" s="41" t="n">
-        <v>2</v>
+    <row r="6" ht="12.75" customHeight="1" s="32">
+      <c r="A6" s="41" t="n">
+        <v>1</v>
       </c>
-      <c r="B5" s="41" t="n">
+      <c r="B6" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="43" t="n">
-        <v>12.10596180630897</v>
+      <c r="C6" s="43" t="n">
+        <v>0.1481404981583445</v>
       </c>
-      <c r="D5" s="43" t="n">
-        <v>0.6053933867500438</v>
+      <c r="D6" s="43" t="n">
+        <v>-39.23963993790853</v>
       </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" s="32">
-      <c r="A6" s="41" t="n"/>
-      <c r="B6" s="41" t="n"/>
-      <c r="C6" s="43" t="n"/>
-      <c r="D6" s="43" t="n"/>
     </row>
     <row r="7" ht="12.75" customHeight="1" s="32">
       <c r="A7" s="41" t="n"/>
@@ -30442,7 +30464,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.01953125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="10" customWidth="1" style="31" min="1" max="1"/>
     <col width="11.45" customWidth="1" style="31" min="2" max="2"/>
@@ -30486,22 +30508,22 @@
     </row>
     <row r="2" ht="12.75" customHeight="1" s="32">
       <c r="A2" s="58" t="n">
-        <v>1099.428466461658</v>
+        <v>342.1608111046228</v>
       </c>
       <c r="B2" s="58" t="n">
-        <v>-2468.106691307119</v>
+        <v>60.44058135915452</v>
       </c>
       <c r="C2" s="58" t="n">
-        <v>1099.428466461629</v>
+        <v>342.1608111046239</v>
       </c>
       <c r="D2" s="58" t="n">
-        <v>-2468.106691307134</v>
+        <v>60.44058135915471</v>
       </c>
       <c r="E2" s="58" t="n">
-        <v>2.864908310584724e-11</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="F2" s="58" t="n">
-        <v>1.409716787748039e-11</v>
+        <v>1.918465386552271e-13</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="32"/>
